--- a/高考全国院校投档线-文件转换_数据清洗/广东/2024/往届全日制本科.xlsx
+++ b/高考全国院校投档线-文件转换_数据清洗/广东/2024/往届全日制本科.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B287B76-5536-4CF7-9E58-B19DE872931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,8 +782,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +797,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -821,13 +829,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,40 +843,196 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -884,28 +1048,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J46" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:J46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:J46" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:J46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="院校名称" dataDxfId="6"/>
-    <tableColumn id="2" name="院校代码" dataDxfId="7"/>
-    <tableColumn id="3" name="办学类型" dataDxfId="11"/>
-    <tableColumn id="4" name="地市" dataDxfId="10"/>
-    <tableColumn id="6" name="院校地址" dataDxfId="5"/>
-    <tableColumn id="7" name="咨询电话" dataDxfId="4"/>
-    <tableColumn id="9" name="招生网址" dataDxfId="3"/>
-    <tableColumn id="10" name="招生简章网址" dataDxfId="2"/>
-    <tableColumn id="11" name="电子邮件" dataDxfId="0"/>
-    <tableColumn id="12" name="备注" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="院校名称" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="院校代码" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="办学类型" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="地市" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="院校地址" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="咨询电话" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="招生网址" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="招生简章网址" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="电子邮件" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="备注" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -943,9 +1107,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -980,7 +1144,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1015,7 +1179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1188,41 +1352,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="44.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="33.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="37" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1234,27 +1398,27 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>11545</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1266,25 +1430,25 @@
       <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>13844</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1294,25 +1458,25 @@
         <v>23</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>11819</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1324,25 +1488,25 @@
       <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>11847</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1352,25 +1516,25 @@
       <c r="I5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>10822</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1382,25 +1546,25 @@
       <c r="I6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>10592</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1412,25 +1576,25 @@
       <c r="I7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>14278</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1440,25 +1604,25 @@
       <c r="I8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>12574</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1470,25 +1634,25 @@
       <c r="I9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>13721</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1500,25 +1664,25 @@
       <c r="I10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>10588</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1530,25 +1694,25 @@
       <c r="I11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>11540</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1560,25 +1724,25 @@
       <c r="I12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>13719</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1588,25 +1752,25 @@
         <v>79</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>13720</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1618,25 +1782,25 @@
       <c r="I14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>12059</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1648,25 +1812,25 @@
       <c r="I15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>11656</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1676,25 +1840,25 @@
       <c r="I16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>11846</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G17" s="2"/>
@@ -1702,25 +1866,25 @@
         <v>99</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>12620</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>102</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1732,25 +1896,25 @@
       <c r="I18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>10571</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1760,25 +1924,25 @@
         <v>108</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>12617</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1788,25 +1952,25 @@
         <v>112</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>13714</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>115</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1818,25 +1982,25 @@
       <c r="I21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>11106</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>2032081599</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1848,25 +2012,25 @@
       <c r="I22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>13656</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>125</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1876,25 +2040,25 @@
         <v>126</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>12621</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>129</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1906,25 +2070,25 @@
       <c r="I24" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>13717</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>87410218</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1936,25 +2100,25 @@
       <c r="I25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>12668</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>139</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1966,25 +2130,25 @@
       <c r="I26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>10586</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>145</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1996,25 +2160,25 @@
       <c r="I27" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>12619</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>151</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2024,25 +2188,25 @@
       <c r="I28" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>12618</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>156</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2054,25 +2218,25 @@
       <c r="I29" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>13667</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2084,25 +2248,25 @@
       <c r="I30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>10585</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>166</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -2114,25 +2278,25 @@
       <c r="I31" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>13902</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -2144,25 +2308,25 @@
       <c r="I32" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>13657</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>176</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -2172,25 +2336,25 @@
       <c r="I33" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>10578</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>180</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -2200,25 +2364,25 @@
         <v>183</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>12623</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -2230,25 +2394,25 @@
       <c r="I35" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>10574</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>190</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -2260,25 +2424,25 @@
       <c r="I36" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>10577</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2290,25 +2454,25 @@
       <c r="I37" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>10582</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>202</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>204</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2320,25 +2484,25 @@
       <c r="I38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>10579</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>210</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -2350,25 +2514,25 @@
       <c r="I39" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>10576</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="3" t="s">
         <v>217</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -2380,25 +2544,25 @@
       <c r="I40" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>14655</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>221</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>223</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -2410,25 +2574,25 @@
       <c r="I41" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>11349</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>227</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>229</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -2440,25 +2604,25 @@
       <c r="I42" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>12622</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2470,25 +2634,25 @@
       <c r="I43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>10580</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="3" t="s">
         <v>241</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -2498,25 +2662,25 @@
       <c r="I44" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>11347</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="3" t="s">
         <v>246</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2528,25 +2692,25 @@
       <c r="I45" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>13684</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>250</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="3" t="s">
         <v>252</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -2556,7 +2720,7 @@
         <v>253</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
